--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734629</v>
+        <v>111734039</v>
       </c>
       <c r="B149" t="n">
-        <v>88966</v>
+        <v>88967</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20655,30 +20655,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5754</v>
+        <v>6039940</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -20694,10 +20694,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537663.3456201598</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R149" t="n">
-        <v>6656669.03414992</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20740,6 +20740,11 @@
       <c r="AB149" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>små</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -20792,10 +20797,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111733729</v>
+        <v>111734531</v>
       </c>
       <c r="B150" t="n">
-        <v>90662</v>
+        <v>88967</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20804,30 +20809,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4363</v>
+        <v>6039940</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -20843,10 +20848,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537784.8865190516</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R150" t="n">
-        <v>6656918.555543642</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20941,10 +20946,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111734445</v>
+        <v>111734390</v>
       </c>
       <c r="B151" t="n">
-        <v>85210</v>
+        <v>89665</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20953,37 +20958,29 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3624</v>
+        <v>73</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
@@ -20992,10 +20989,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537682.2670869593</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R151" t="n">
-        <v>6656678.219876539</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21062,17 +21059,17 @@
       </c>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO151" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -21090,10 +21087,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111734063</v>
+        <v>111734434</v>
       </c>
       <c r="B152" t="n">
-        <v>88946</v>
+        <v>88909</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21106,26 +21103,26 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>256335</v>
+        <v>720</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -21141,10 +21138,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537734.3589083791</v>
+        <v>537683.5943855111</v>
       </c>
       <c r="R152" t="n">
-        <v>6656722.215160147</v>
+        <v>6656695.218654346</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21187,6 +21184,11 @@
       <c r="AB152" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -21239,10 +21241,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111734010</v>
+        <v>111734100</v>
       </c>
       <c r="B153" t="n">
-        <v>88946</v>
+        <v>88967</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21251,30 +21253,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>256335</v>
+        <v>6039940</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -21290,10 +21292,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537731.8253342439</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R153" t="n">
-        <v>6656774.143081455</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21388,10 +21390,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734315</v>
+        <v>111733686</v>
       </c>
       <c r="B154" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21400,30 +21402,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -21439,10 +21441,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537701.3922571414</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R154" t="n">
-        <v>6656716.382399381</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21509,17 +21511,17 @@
       </c>
       <c r="AJ154" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK154" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO154" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -21537,10 +21539,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111734658</v>
+        <v>111734010</v>
       </c>
       <c r="B155" t="n">
-        <v>90151</v>
+        <v>88946</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21549,30 +21551,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>366</v>
+        <v>256335</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -21588,10 +21590,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537685.1971427263</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R155" t="n">
-        <v>6656734.200801319</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21658,17 +21660,17 @@
       </c>
       <c r="AJ155" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK155" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO155" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr"/>
@@ -21686,10 +21688,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111733999</v>
+        <v>111734315</v>
       </c>
       <c r="B156" t="n">
-        <v>88966</v>
+        <v>90151</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21702,26 +21704,26 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5754</v>
+        <v>366</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21737,10 +21739,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537735.408403003</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R156" t="n">
-        <v>6656815.142909602</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21807,17 +21809,17 @@
       </c>
       <c r="AJ156" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK156" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO156" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -21835,10 +21837,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111733686</v>
+        <v>111734154</v>
       </c>
       <c r="B157" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21847,30 +21849,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21886,10 +21888,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537776.5022700967</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R157" t="n">
-        <v>6656955.434839563</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21956,17 +21958,17 @@
       </c>
       <c r="AJ157" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK157" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -21984,10 +21986,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111734100</v>
+        <v>111733999</v>
       </c>
       <c r="B158" t="n">
-        <v>88967</v>
+        <v>88966</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -21996,30 +21998,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>6039940</v>
+        <v>5754</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -22035,10 +22037,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537710.2246313525</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R158" t="n">
-        <v>6656733.457844303</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22133,10 +22135,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111734154</v>
+        <v>111733658</v>
       </c>
       <c r="B159" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22145,37 +22147,29 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
@@ -22184,10 +22178,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537710.2246313525</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R159" t="n">
-        <v>6656733.457844303</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22254,17 +22248,17 @@
       </c>
       <c r="AJ159" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK159" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO159" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr"/>
@@ -22282,10 +22276,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111733654</v>
+        <v>111734658</v>
       </c>
       <c r="B160" t="n">
-        <v>90687</v>
+        <v>90151</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22294,29 +22288,37 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>5964</v>
+        <v>366</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
@@ -22325,10 +22327,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537747.6347874232</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R160" t="n">
-        <v>6657038.059664771</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22395,17 +22397,17 @@
       </c>
       <c r="AJ160" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK160" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO160" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -22423,10 +22425,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111734405</v>
+        <v>111733878</v>
       </c>
       <c r="B161" t="n">
-        <v>90018</v>
+        <v>90678</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22439,33 +22441,25 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1339</v>
+        <v>4366</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
@@ -22474,10 +22468,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537687.4847450438</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R161" t="n">
-        <v>6656706.248840296</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22554,7 +22548,7 @@
       </c>
       <c r="AO161" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -22572,10 +22566,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111734531</v>
+        <v>111733781</v>
       </c>
       <c r="B162" t="n">
-        <v>88967</v>
+        <v>88946</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22584,30 +22578,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6039940</v>
+        <v>256335</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22623,10 +22617,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537682.2670869593</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R162" t="n">
-        <v>6656678.219876539</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22721,10 +22715,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734039</v>
+        <v>111734063</v>
       </c>
       <c r="B163" t="n">
-        <v>88967</v>
+        <v>88946</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22733,30 +22727,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6039940</v>
+        <v>256335</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22772,10 +22766,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537725.9133506906</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R163" t="n">
-        <v>6656765.090555903</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22818,11 +22812,6 @@
       <c r="AB163" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC163" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -22875,10 +22864,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111734024</v>
+        <v>111733729</v>
       </c>
       <c r="B164" t="n">
-        <v>88950</v>
+        <v>90662</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22887,35 +22876,35 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>256756</v>
+        <v>4363</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -22926,10 +22915,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537725.9133506906</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R164" t="n">
-        <v>6656765.090555903</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -22972,11 +22961,6 @@
       <c r="AB164" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC164" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD164" t="b">
@@ -23029,10 +23013,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111733878</v>
+        <v>111733654</v>
       </c>
       <c r="B165" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23045,21 +23029,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -23072,10 +23056,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537749.1720232533</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R165" t="n">
-        <v>6656839.262154824</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23319,10 +23303,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111733781</v>
+        <v>111734445</v>
       </c>
       <c r="B167" t="n">
-        <v>88946</v>
+        <v>85210</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23331,30 +23315,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>256335</v>
+        <v>3624</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -23370,10 +23354,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537777.7813424434</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R167" t="n">
-        <v>6656879.518825633</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23468,10 +23452,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111733658</v>
+        <v>111734629</v>
       </c>
       <c r="B168" t="n">
-        <v>90678</v>
+        <v>88966</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23480,29 +23464,37 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4366</v>
+        <v>5754</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
@@ -23511,10 +23503,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537747.6347874232</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R168" t="n">
-        <v>6657038.059664771</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23609,10 +23601,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734390</v>
+        <v>111734024</v>
       </c>
       <c r="B169" t="n">
-        <v>89665</v>
+        <v>88950</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23625,25 +23617,33 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>73</v>
+        <v>256756</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+          <t>(Schaeff.) Ricken</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537687.4847450438</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R169" t="n">
-        <v>6656706.248840296</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23700,6 +23700,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC169" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
+        </is>
+      </c>
       <c r="AD169" t="b">
         <v>0</v>
       </c>
@@ -23722,17 +23727,17 @@
       </c>
       <c r="AJ169" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK169" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO169" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT169" t="inlineStr"/>
@@ -23750,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734434</v>
+        <v>111734405</v>
       </c>
       <c r="B170" t="n">
-        <v>88909</v>
+        <v>90018</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23762,30 +23767,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>720</v>
+        <v>1339</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23801,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537683.5943855111</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R170" t="n">
-        <v>6656695.218654346</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23849,11 +23854,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC170" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
-        </is>
-      </c>
       <c r="AD170" t="b">
         <v>0</v>
       </c>
@@ -23886,7 +23886,7 @@
       </c>
       <c r="AO170" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734039</v>
+        <v>111734024</v>
       </c>
       <c r="B149" t="n">
-        <v>88967</v>
+        <v>88950</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20655,35 +20655,35 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6039940</v>
+        <v>256756</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -20744,7 +20744,7 @@
       </c>
       <c r="AC149" t="inlineStr">
         <is>
-          <t>små</t>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -20946,10 +20946,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111734390</v>
+        <v>111734063</v>
       </c>
       <c r="B151" t="n">
-        <v>89665</v>
+        <v>88946</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20958,29 +20958,37 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>73</v>
+        <v>256335</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
@@ -20989,10 +20997,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537687.4847450438</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R151" t="n">
-        <v>6656706.248840296</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21059,17 +21067,17 @@
       </c>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO151" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -21087,10 +21095,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111734434</v>
+        <v>111733878</v>
       </c>
       <c r="B152" t="n">
-        <v>88909</v>
+        <v>90678</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21099,37 +21107,29 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>720</v>
+        <v>4366</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
@@ -21138,10 +21138,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537683.5943855111</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R152" t="n">
-        <v>6656695.218654346</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21184,11 +21184,6 @@
       <c r="AB152" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC152" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -21241,10 +21236,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111734100</v>
+        <v>111733658</v>
       </c>
       <c r="B153" t="n">
-        <v>88967</v>
+        <v>90678</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21253,37 +21248,29 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6039940</v>
+        <v>4366</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
@@ -21292,10 +21279,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537710.2246313525</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R153" t="n">
-        <v>6656733.457844303</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21390,10 +21377,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111733686</v>
+        <v>111734358</v>
       </c>
       <c r="B154" t="n">
-        <v>90678</v>
+        <v>88966</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21402,30 +21389,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>4366</v>
+        <v>5754</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -21441,10 +21428,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537776.5022700967</v>
+        <v>537695.459656042</v>
       </c>
       <c r="R154" t="n">
-        <v>6656955.434839563</v>
+        <v>6656709.327821301</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21688,10 +21675,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111734315</v>
+        <v>111734405</v>
       </c>
       <c r="B156" t="n">
-        <v>90151</v>
+        <v>90018</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21700,30 +21687,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>366</v>
+        <v>1339</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21739,10 +21726,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537701.3922571414</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R156" t="n">
-        <v>6656716.382399381</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21809,17 +21796,17 @@
       </c>
       <c r="AJ156" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK156" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO156" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -21986,10 +21973,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111733999</v>
+        <v>111734390</v>
       </c>
       <c r="B158" t="n">
-        <v>88966</v>
+        <v>89665</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -22002,33 +21989,25 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5754</v>
+        <v>73</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
@@ -22037,10 +22016,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537735.408403003</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R158" t="n">
-        <v>6656815.142909602</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22107,17 +22086,17 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO158" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -22135,10 +22114,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111733658</v>
+        <v>111733654</v>
       </c>
       <c r="B159" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22151,21 +22130,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -22276,10 +22255,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734658</v>
+        <v>111734100</v>
       </c>
       <c r="B160" t="n">
-        <v>90151</v>
+        <v>88967</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22288,30 +22267,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>366</v>
+        <v>6039940</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -22327,10 +22306,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537685.1971427263</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R160" t="n">
-        <v>6656734.200801319</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22397,17 +22376,17 @@
       </c>
       <c r="AJ160" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK160" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO160" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -22425,7 +22404,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111733878</v>
+        <v>111733686</v>
       </c>
       <c r="B161" t="n">
         <v>90678</v>
@@ -22458,8 +22437,16 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
@@ -22468,10 +22455,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537749.1720232533</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R161" t="n">
-        <v>6656839.262154824</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22566,10 +22553,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111733781</v>
+        <v>111733729</v>
       </c>
       <c r="B162" t="n">
-        <v>88946</v>
+        <v>90662</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22578,30 +22565,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>256335</v>
+        <v>4363</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22617,10 +22604,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537777.7813424434</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R162" t="n">
-        <v>6656879.518825633</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22715,10 +22702,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734063</v>
+        <v>111734445</v>
       </c>
       <c r="B163" t="n">
-        <v>88946</v>
+        <v>85210</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22727,30 +22714,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>256335</v>
+        <v>3624</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22766,10 +22753,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537734.3589083791</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R163" t="n">
-        <v>6656722.215160147</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22864,10 +22851,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111733729</v>
+        <v>111733781</v>
       </c>
       <c r="B164" t="n">
-        <v>90662</v>
+        <v>88946</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22876,30 +22863,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4363</v>
+        <v>256335</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -22915,10 +22902,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537784.8865190516</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R164" t="n">
-        <v>6656918.555543642</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -23013,10 +23000,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111733654</v>
+        <v>111734039</v>
       </c>
       <c r="B165" t="n">
-        <v>90687</v>
+        <v>88967</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23025,29 +23012,37 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>5964</v>
+        <v>6039940</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+          <t>Schild</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
@@ -23056,10 +23051,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537747.6347874232</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R165" t="n">
-        <v>6657038.059664771</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23102,6 +23097,11 @@
       <c r="AB165" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>små</t>
         </is>
       </c>
       <c r="AD165" t="b">
@@ -23154,7 +23154,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111734358</v>
+        <v>111733999</v>
       </c>
       <c r="B166" t="n">
         <v>88966</v>
@@ -23189,7 +23189,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23205,10 +23205,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537695.459656042</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R166" t="n">
-        <v>6656709.327821301</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23303,10 +23303,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111734445</v>
+        <v>111734434</v>
       </c>
       <c r="B167" t="n">
-        <v>85210</v>
+        <v>88909</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23315,30 +23315,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3624</v>
+        <v>720</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -23354,10 +23354,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537682.2670869593</v>
+        <v>537683.5943855111</v>
       </c>
       <c r="R167" t="n">
-        <v>6656678.219876539</v>
+        <v>6656695.218654346</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23400,6 +23400,11 @@
       <c r="AB167" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC167" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -23452,10 +23457,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734629</v>
+        <v>111734658</v>
       </c>
       <c r="B168" t="n">
-        <v>88966</v>
+        <v>90151</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23468,26 +23473,26 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>5754</v>
+        <v>366</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23503,10 +23508,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537663.3456201598</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R168" t="n">
-        <v>6656669.03414992</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23573,17 +23578,17 @@
       </c>
       <c r="AJ168" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK168" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -23601,10 +23606,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734024</v>
+        <v>111734629</v>
       </c>
       <c r="B169" t="n">
-        <v>88950</v>
+        <v>88966</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23617,31 +23622,31 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>256756</v>
+        <v>5754</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -23652,10 +23657,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537725.9133506906</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R169" t="n">
-        <v>6656765.090555903</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23698,11 +23703,6 @@
       <c r="AB169" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC169" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD169" t="b">
@@ -23755,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734405</v>
+        <v>111734315</v>
       </c>
       <c r="B170" t="n">
-        <v>90018</v>
+        <v>90151</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23767,30 +23767,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1339</v>
+        <v>366</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537687.4847450438</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R170" t="n">
-        <v>6656706.248840296</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23876,17 +23876,17 @@
       </c>
       <c r="AJ170" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK170" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO170" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734024</v>
+        <v>111734315</v>
       </c>
       <c r="B149" t="n">
-        <v>88950</v>
+        <v>90151</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20659,31 +20659,31 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>256756</v>
+        <v>366</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -20694,10 +20694,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537725.9133506906</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R149" t="n">
-        <v>6656765.090555903</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20742,11 +20742,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC149" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
-        </is>
-      </c>
       <c r="AD149" t="b">
         <v>0</v>
       </c>
@@ -20769,17 +20764,17 @@
       </c>
       <c r="AJ149" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO149" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -20797,10 +20792,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111734531</v>
+        <v>111733654</v>
       </c>
       <c r="B150" t="n">
-        <v>88967</v>
+        <v>90687</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20809,37 +20804,29 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6039940</v>
+        <v>5964</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
@@ -20848,10 +20835,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537682.2670869593</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R150" t="n">
-        <v>6656678.219876539</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20946,10 +20933,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111734063</v>
+        <v>111734358</v>
       </c>
       <c r="B151" t="n">
-        <v>88946</v>
+        <v>88966</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20958,30 +20945,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>256335</v>
+        <v>5754</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -20997,10 +20984,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537734.3589083791</v>
+        <v>537695.459656042</v>
       </c>
       <c r="R151" t="n">
-        <v>6656722.215160147</v>
+        <v>6656709.327821301</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21095,10 +21082,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111733878</v>
+        <v>111734024</v>
       </c>
       <c r="B152" t="n">
-        <v>90678</v>
+        <v>88950</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21107,29 +21094,37 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4366</v>
+        <v>256756</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+          <t>(Schaeff.) Ricken</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
@@ -21138,10 +21133,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537749.1720232533</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R152" t="n">
-        <v>6656839.262154824</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21184,6 +21179,11 @@
       <c r="AB152" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -21236,10 +21236,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111733658</v>
+        <v>111733729</v>
       </c>
       <c r="B153" t="n">
-        <v>90678</v>
+        <v>90662</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21252,25 +21252,33 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
@@ -21279,10 +21287,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537747.6347874232</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R153" t="n">
-        <v>6657038.059664771</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21377,10 +21385,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734358</v>
+        <v>111734100</v>
       </c>
       <c r="B154" t="n">
-        <v>88966</v>
+        <v>88967</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21389,30 +21397,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5754</v>
+        <v>6039940</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -21428,10 +21436,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537695.459656042</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R154" t="n">
-        <v>6656709.327821301</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21526,10 +21534,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111734010</v>
+        <v>111734390</v>
       </c>
       <c r="B155" t="n">
-        <v>88946</v>
+        <v>89665</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21538,37 +21546,29 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>256335</v>
+        <v>73</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
@@ -21577,10 +21577,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537731.8253342439</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R155" t="n">
-        <v>6656774.143081455</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21647,17 +21647,17 @@
       </c>
       <c r="AJ155" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK155" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO155" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr"/>
@@ -21675,10 +21675,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111734405</v>
+        <v>111733781</v>
       </c>
       <c r="B156" t="n">
-        <v>90018</v>
+        <v>88946</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21687,30 +21687,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1339</v>
+        <v>256335</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21726,10 +21726,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537687.4847450438</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R156" t="n">
-        <v>6656706.248840296</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="AO156" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -21824,10 +21824,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111734154</v>
+        <v>111734405</v>
       </c>
       <c r="B157" t="n">
-        <v>90151</v>
+        <v>90018</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21836,30 +21836,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>366</v>
+        <v>1339</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21875,10 +21875,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537710.2246313525</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R157" t="n">
-        <v>6656733.457844303</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21945,17 +21945,17 @@
       </c>
       <c r="AJ157" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK157" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -21973,10 +21973,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111734390</v>
+        <v>111733658</v>
       </c>
       <c r="B158" t="n">
-        <v>89665</v>
+        <v>90678</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -21985,25 +21985,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73</v>
+        <v>4366</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -22016,10 +22016,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537687.4847450438</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R158" t="n">
-        <v>6656706.248840296</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22086,17 +22086,17 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO158" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -22114,10 +22114,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111733654</v>
+        <v>111733878</v>
       </c>
       <c r="B159" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22130,21 +22130,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -22157,10 +22157,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537747.6347874232</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R159" t="n">
-        <v>6657038.059664771</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22255,10 +22255,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734100</v>
+        <v>111734434</v>
       </c>
       <c r="B160" t="n">
-        <v>88967</v>
+        <v>88909</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22267,30 +22267,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6039940</v>
+        <v>720</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537710.2246313525</v>
+        <v>537683.5943855111</v>
       </c>
       <c r="R160" t="n">
-        <v>6656733.457844303</v>
+        <v>6656695.218654346</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22352,6 +22352,11 @@
       <c r="AB160" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD160" t="b">
@@ -22404,10 +22409,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111733686</v>
+        <v>111734445</v>
       </c>
       <c r="B161" t="n">
-        <v>90678</v>
+        <v>85210</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22420,26 +22425,26 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4366</v>
+        <v>3624</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -22455,10 +22460,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537776.5022700967</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R161" t="n">
-        <v>6656955.434839563</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22553,10 +22558,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111733729</v>
+        <v>111733686</v>
       </c>
       <c r="B162" t="n">
-        <v>90662</v>
+        <v>90678</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22569,26 +22574,26 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4363</v>
+        <v>4366</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22604,10 +22609,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537784.8865190516</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R162" t="n">
-        <v>6656918.555543642</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22702,10 +22707,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734445</v>
+        <v>111734658</v>
       </c>
       <c r="B163" t="n">
-        <v>85210</v>
+        <v>90151</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22714,30 +22719,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3624</v>
+        <v>366</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22753,10 +22758,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537682.2670869593</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R163" t="n">
-        <v>6656678.219876539</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22823,17 +22828,17 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -22851,10 +22856,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111733781</v>
+        <v>111734039</v>
       </c>
       <c r="B164" t="n">
-        <v>88946</v>
+        <v>88967</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22863,30 +22868,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>256335</v>
+        <v>6039940</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -22902,10 +22907,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537777.7813424434</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R164" t="n">
-        <v>6656879.518825633</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -22948,6 +22953,11 @@
       <c r="AB164" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC164" t="inlineStr">
+        <is>
+          <t>små</t>
         </is>
       </c>
       <c r="AD164" t="b">
@@ -23000,10 +23010,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111734039</v>
+        <v>111734629</v>
       </c>
       <c r="B165" t="n">
-        <v>88967</v>
+        <v>88966</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23012,30 +23022,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6039940</v>
+        <v>5754</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -23051,10 +23061,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537725.9133506906</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R165" t="n">
-        <v>6656765.090555903</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23097,11 +23107,6 @@
       <c r="AB165" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC165" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD165" t="b">
@@ -23154,10 +23159,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111733999</v>
+        <v>111734010</v>
       </c>
       <c r="B166" t="n">
-        <v>88966</v>
+        <v>88946</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -23166,30 +23171,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5754</v>
+        <v>256335</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23205,10 +23210,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537735.408403003</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R166" t="n">
-        <v>6656815.142909602</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23303,10 +23308,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111734434</v>
+        <v>111734531</v>
       </c>
       <c r="B167" t="n">
-        <v>88909</v>
+        <v>88967</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23315,30 +23320,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>720</v>
+        <v>6039940</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -23354,10 +23359,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537683.5943855111</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R167" t="n">
-        <v>6656695.218654346</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23400,11 +23405,6 @@
       <c r="AB167" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC167" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -23457,7 +23457,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734658</v>
+        <v>111734154</v>
       </c>
       <c r="B168" t="n">
         <v>90151</v>
@@ -23492,7 +23492,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23508,10 +23508,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537685.1971427263</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R168" t="n">
-        <v>6656734.200801319</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23588,7 +23588,7 @@
       </c>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -23606,10 +23606,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734629</v>
+        <v>111734063</v>
       </c>
       <c r="B169" t="n">
-        <v>88966</v>
+        <v>88946</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23618,30 +23618,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5754</v>
+        <v>256335</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23657,10 +23657,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537663.3456201598</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R169" t="n">
-        <v>6656669.03414992</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23755,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734315</v>
+        <v>111733999</v>
       </c>
       <c r="B170" t="n">
-        <v>90151</v>
+        <v>88966</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23771,26 +23771,26 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>366</v>
+        <v>5754</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537701.3922571414</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R170" t="n">
-        <v>6656716.382399381</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23876,17 +23876,17 @@
       </c>
       <c r="AJ170" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK170" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO170" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734315</v>
+        <v>111734531</v>
       </c>
       <c r="B149" t="n">
-        <v>90151</v>
+        <v>88967</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20655,30 +20655,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>366</v>
+        <v>6039940</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -20694,10 +20694,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537701.3922571414</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R149" t="n">
-        <v>6656716.382399381</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20764,17 +20764,17 @@
       </c>
       <c r="AJ149" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO149" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -20792,10 +20792,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111733654</v>
+        <v>111734315</v>
       </c>
       <c r="B150" t="n">
-        <v>90687</v>
+        <v>90151</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20804,29 +20804,37 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5964</v>
+        <v>366</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
@@ -20835,10 +20843,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537747.6347874232</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R150" t="n">
-        <v>6657038.059664771</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20905,17 +20913,17 @@
       </c>
       <c r="AJ150" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK150" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO150" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -20933,10 +20941,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111734358</v>
+        <v>111734434</v>
       </c>
       <c r="B151" t="n">
-        <v>88966</v>
+        <v>88909</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20945,30 +20953,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5754</v>
+        <v>720</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -20984,10 +20992,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537695.459656042</v>
+        <v>537683.5943855111</v>
       </c>
       <c r="R151" t="n">
-        <v>6656709.327821301</v>
+        <v>6656695.218654346</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21030,6 +21038,11 @@
       <c r="AB151" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -21082,10 +21095,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111734024</v>
+        <v>111733781</v>
       </c>
       <c r="B152" t="n">
-        <v>88950</v>
+        <v>88946</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21094,35 +21107,35 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>256756</v>
+        <v>256335</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
@@ -21133,10 +21146,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537725.9133506906</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R152" t="n">
-        <v>6656765.090555903</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21179,11 +21192,6 @@
       <c r="AB152" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC152" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -21236,10 +21244,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111733729</v>
+        <v>111734100</v>
       </c>
       <c r="B153" t="n">
-        <v>90662</v>
+        <v>88967</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21248,30 +21256,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4363</v>
+        <v>6039940</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -21287,10 +21295,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537784.8865190516</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R153" t="n">
-        <v>6656918.555543642</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21385,10 +21393,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734100</v>
+        <v>111734154</v>
       </c>
       <c r="B154" t="n">
-        <v>88967</v>
+        <v>90151</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21397,30 +21405,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>6039940</v>
+        <v>366</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -21506,17 +21514,17 @@
       </c>
       <c r="AJ154" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK154" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO154" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -21675,10 +21683,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111733781</v>
+        <v>111733686</v>
       </c>
       <c r="B156" t="n">
-        <v>88946</v>
+        <v>90678</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21687,30 +21695,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>256335</v>
+        <v>4366</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21726,10 +21734,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537777.7813424434</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R156" t="n">
-        <v>6656879.518825633</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21824,10 +21832,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111734405</v>
+        <v>111734010</v>
       </c>
       <c r="B157" t="n">
-        <v>90018</v>
+        <v>88946</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21836,30 +21844,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1339</v>
+        <v>256335</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21875,10 +21883,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537687.4847450438</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R157" t="n">
-        <v>6656706.248840296</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21955,7 +21963,7 @@
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -22114,10 +22122,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111733878</v>
+        <v>111734445</v>
       </c>
       <c r="B159" t="n">
-        <v>90678</v>
+        <v>85210</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22130,25 +22138,33 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4366</v>
+        <v>3624</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+          <t>(Schaeff. : Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
@@ -22157,10 +22173,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537749.1720232533</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R159" t="n">
-        <v>6656839.262154824</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22255,10 +22271,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734434</v>
+        <v>111734024</v>
       </c>
       <c r="B160" t="n">
-        <v>88909</v>
+        <v>88950</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22267,35 +22283,35 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>720</v>
+        <v>256756</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -22306,10 +22322,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537683.5943855111</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R160" t="n">
-        <v>6656695.218654346</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22356,7 +22372,7 @@
       </c>
       <c r="AC160" t="inlineStr">
         <is>
-          <t>ring ca 1,5 m i diameter</t>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD160" t="b">
@@ -22409,10 +22425,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111734445</v>
+        <v>111733999</v>
       </c>
       <c r="B161" t="n">
-        <v>85210</v>
+        <v>88966</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22421,30 +22437,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3624</v>
+        <v>5754</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -22460,10 +22476,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537682.2670869593</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R161" t="n">
-        <v>6656678.219876539</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22558,10 +22574,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111733686</v>
+        <v>111734658</v>
       </c>
       <c r="B162" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22570,30 +22586,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22609,10 +22625,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537776.5022700967</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R162" t="n">
-        <v>6656955.434839563</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22679,17 +22695,17 @@
       </c>
       <c r="AJ162" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -22707,10 +22723,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734658</v>
+        <v>111734063</v>
       </c>
       <c r="B163" t="n">
-        <v>90151</v>
+        <v>88946</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22719,30 +22735,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>366</v>
+        <v>256335</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22758,10 +22774,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537685.1971427263</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R163" t="n">
-        <v>6656734.200801319</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22828,17 +22844,17 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -22856,10 +22872,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111734039</v>
+        <v>111733654</v>
       </c>
       <c r="B164" t="n">
-        <v>88967</v>
+        <v>90687</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22868,37 +22884,29 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6039940</v>
+        <v>5964</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
@@ -22907,10 +22915,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537725.9133506906</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R164" t="n">
-        <v>6656765.090555903</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -22953,11 +22961,6 @@
       <c r="AB164" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC164" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD164" t="b">
@@ -23010,10 +23013,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111734629</v>
+        <v>111733878</v>
       </c>
       <c r="B165" t="n">
-        <v>88966</v>
+        <v>90678</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23022,37 +23025,29 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>5754</v>
+        <v>4366</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
@@ -23061,10 +23056,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537663.3456201598</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R165" t="n">
-        <v>6656669.03414992</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23159,10 +23154,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111734010</v>
+        <v>111734358</v>
       </c>
       <c r="B166" t="n">
-        <v>88946</v>
+        <v>88966</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -23171,30 +23166,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>256335</v>
+        <v>5754</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23210,10 +23205,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537731.8253342439</v>
+        <v>537695.459656042</v>
       </c>
       <c r="R166" t="n">
-        <v>6656774.143081455</v>
+        <v>6656709.327821301</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23308,10 +23303,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111734531</v>
+        <v>111734405</v>
       </c>
       <c r="B167" t="n">
-        <v>88967</v>
+        <v>90018</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23320,30 +23315,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6039940</v>
+        <v>1339</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -23359,10 +23354,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537682.2670869593</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R167" t="n">
-        <v>6656678.219876539</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23439,7 +23434,7 @@
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -23457,10 +23452,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734154</v>
+        <v>111734039</v>
       </c>
       <c r="B168" t="n">
-        <v>90151</v>
+        <v>88967</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23469,30 +23464,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>366</v>
+        <v>6039940</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23508,10 +23503,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537710.2246313525</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R168" t="n">
-        <v>6656733.457844303</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23556,6 +23551,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC168" t="inlineStr">
+        <is>
+          <t>små</t>
+        </is>
+      </c>
       <c r="AD168" t="b">
         <v>0</v>
       </c>
@@ -23578,17 +23578,17 @@
       </c>
       <c r="AJ168" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK168" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -23606,10 +23606,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734063</v>
+        <v>111734629</v>
       </c>
       <c r="B169" t="n">
-        <v>88946</v>
+        <v>88966</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23618,30 +23618,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>256335</v>
+        <v>5754</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23657,10 +23657,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537734.3589083791</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R169" t="n">
-        <v>6656722.215160147</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23755,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111733999</v>
+        <v>111733729</v>
       </c>
       <c r="B170" t="n">
-        <v>88966</v>
+        <v>90662</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23767,30 +23767,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5754</v>
+        <v>4363</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537735.408403003</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R170" t="n">
-        <v>6656815.142909602</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -23303,10 +23303,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111734405</v>
+        <v>111734039</v>
       </c>
       <c r="B167" t="n">
-        <v>90018</v>
+        <v>88967</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23315,30 +23315,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1339</v>
+        <v>6039940</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -23354,10 +23354,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537687.4847450438</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R167" t="n">
-        <v>6656706.248840296</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23402,6 +23402,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC167" t="inlineStr">
+        <is>
+          <t>små</t>
+        </is>
+      </c>
       <c r="AD167" t="b">
         <v>0</v>
       </c>
@@ -23434,7 +23439,7 @@
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -23452,10 +23457,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734039</v>
+        <v>111734405</v>
       </c>
       <c r="B168" t="n">
-        <v>88967</v>
+        <v>90018</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23464,30 +23469,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>6039940</v>
+        <v>1339</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23503,10 +23508,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537725.9133506906</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R168" t="n">
-        <v>6656765.090555903</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23551,11 +23556,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC168" t="inlineStr">
-        <is>
-          <t>små</t>
-        </is>
-      </c>
       <c r="AD168" t="b">
         <v>0</v>
       </c>
@@ -23588,7 +23588,7 @@
       </c>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734531</v>
+        <v>111734024</v>
       </c>
       <c r="B149" t="n">
-        <v>88967</v>
+        <v>88950</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20655,35 +20655,35 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6039940</v>
+        <v>256756</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -20694,10 +20694,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537682.2670869593</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R149" t="n">
-        <v>6656678.219876539</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20740,6 +20740,11 @@
       <c r="AB149" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -20792,10 +20797,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111734315</v>
+        <v>111734010</v>
       </c>
       <c r="B150" t="n">
-        <v>90151</v>
+        <v>88946</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20804,30 +20809,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>366</v>
+        <v>256335</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -20843,10 +20848,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537701.3922571414</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R150" t="n">
-        <v>6656716.382399381</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20913,17 +20918,17 @@
       </c>
       <c r="AJ150" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK150" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO150" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -21095,10 +21100,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111733781</v>
+        <v>111734100</v>
       </c>
       <c r="B152" t="n">
-        <v>88946</v>
+        <v>88967</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21107,30 +21112,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>256335</v>
+        <v>6039940</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -21146,10 +21151,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537777.7813424434</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R152" t="n">
-        <v>6656879.518825633</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21244,10 +21249,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111734100</v>
+        <v>111734445</v>
       </c>
       <c r="B153" t="n">
-        <v>88967</v>
+        <v>85210</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21256,30 +21261,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6039940</v>
+        <v>3624</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -21295,10 +21300,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537710.2246313525</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R153" t="n">
-        <v>6656733.457844303</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21542,10 +21547,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111734390</v>
+        <v>111733781</v>
       </c>
       <c r="B155" t="n">
-        <v>89665</v>
+        <v>88946</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21554,29 +21559,37 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>73</v>
+        <v>256335</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
@@ -21585,10 +21598,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537687.4847450438</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R155" t="n">
-        <v>6656706.248840296</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21655,17 +21668,17 @@
       </c>
       <c r="AJ155" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK155" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO155" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr"/>
@@ -21683,10 +21696,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111733686</v>
+        <v>111733729</v>
       </c>
       <c r="B156" t="n">
-        <v>90678</v>
+        <v>90662</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21699,26 +21712,26 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21734,10 +21747,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537776.5022700967</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R156" t="n">
-        <v>6656955.434839563</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21832,10 +21845,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111734010</v>
+        <v>111734390</v>
       </c>
       <c r="B157" t="n">
-        <v>88946</v>
+        <v>89665</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21844,37 +21857,29 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>256335</v>
+        <v>73</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
@@ -21883,10 +21888,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537731.8253342439</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R157" t="n">
-        <v>6656774.143081455</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21953,17 +21958,17 @@
       </c>
       <c r="AJ157" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK157" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -21981,10 +21986,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111733658</v>
+        <v>111734315</v>
       </c>
       <c r="B158" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -21993,29 +21998,37 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
@@ -22024,10 +22037,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537747.6347874232</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R158" t="n">
-        <v>6657038.059664771</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22094,17 +22107,17 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO158" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -22122,10 +22135,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111734445</v>
+        <v>111734358</v>
       </c>
       <c r="B159" t="n">
-        <v>85210</v>
+        <v>88966</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22134,30 +22147,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3624</v>
+        <v>5754</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -22173,10 +22186,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537682.2670869593</v>
+        <v>537695.459656042</v>
       </c>
       <c r="R159" t="n">
-        <v>6656678.219876539</v>
+        <v>6656709.327821301</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22271,10 +22284,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734024</v>
+        <v>111733654</v>
       </c>
       <c r="B160" t="n">
-        <v>88950</v>
+        <v>90687</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22283,37 +22296,29 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>256756</v>
+        <v>5964</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
@@ -22322,10 +22327,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537725.9133506906</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R160" t="n">
-        <v>6656765.090555903</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22368,11 +22373,6 @@
       <c r="AB160" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC160" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD160" t="b">
@@ -22425,10 +22425,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111733999</v>
+        <v>111733658</v>
       </c>
       <c r="B161" t="n">
-        <v>88966</v>
+        <v>90678</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22437,37 +22437,29 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5754</v>
+        <v>4366</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
@@ -22476,10 +22468,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537735.408403003</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R161" t="n">
-        <v>6656815.142909602</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22574,10 +22566,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111734658</v>
+        <v>111734039</v>
       </c>
       <c r="B162" t="n">
-        <v>90151</v>
+        <v>88967</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22586,30 +22578,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>366</v>
+        <v>6039940</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22625,10 +22617,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537685.1971427263</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R162" t="n">
-        <v>6656734.200801319</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22673,6 +22665,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC162" t="inlineStr">
+        <is>
+          <t>små</t>
+        </is>
+      </c>
       <c r="AD162" t="b">
         <v>0</v>
       </c>
@@ -22695,17 +22692,17 @@
       </c>
       <c r="AJ162" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -22723,10 +22720,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734063</v>
+        <v>111734405</v>
       </c>
       <c r="B163" t="n">
-        <v>88946</v>
+        <v>90018</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22735,30 +22732,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>256335</v>
+        <v>1339</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22774,10 +22771,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537734.3589083791</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R163" t="n">
-        <v>6656722.215160147</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22854,7 +22851,7 @@
       </c>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -22872,10 +22869,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111733654</v>
+        <v>111733878</v>
       </c>
       <c r="B164" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22888,21 +22885,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -22915,10 +22912,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537747.6347874232</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R164" t="n">
-        <v>6657038.059664771</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -23013,10 +23010,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111733878</v>
+        <v>111734629</v>
       </c>
       <c r="B165" t="n">
-        <v>90678</v>
+        <v>88966</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23025,29 +23022,37 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4366</v>
+        <v>5754</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
@@ -23056,10 +23061,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537749.1720232533</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R165" t="n">
-        <v>6656839.262154824</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23154,10 +23159,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111734358</v>
+        <v>111734658</v>
       </c>
       <c r="B166" t="n">
-        <v>88966</v>
+        <v>90151</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -23170,26 +23175,26 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5754</v>
+        <v>366</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23205,10 +23210,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537695.459656042</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R166" t="n">
-        <v>6656709.327821301</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23275,17 +23280,17 @@
       </c>
       <c r="AJ166" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK166" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO166" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -23303,10 +23308,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111734039</v>
+        <v>111733686</v>
       </c>
       <c r="B167" t="n">
-        <v>88967</v>
+        <v>90678</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23315,30 +23320,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6039940</v>
+        <v>4366</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -23354,10 +23359,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537725.9133506906</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R167" t="n">
-        <v>6656765.090555903</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23400,11 +23405,6 @@
       <c r="AB167" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC167" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -23457,10 +23457,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734405</v>
+        <v>111734531</v>
       </c>
       <c r="B168" t="n">
-        <v>90018</v>
+        <v>88967</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23469,30 +23469,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1339</v>
+        <v>6039940</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23508,10 +23508,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537687.4847450438</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R168" t="n">
-        <v>6656706.248840296</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23588,7 +23588,7 @@
       </c>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -23606,7 +23606,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734629</v>
+        <v>111733999</v>
       </c>
       <c r="B169" t="n">
         <v>88966</v>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23657,10 +23657,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537663.3456201598</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R169" t="n">
-        <v>6656669.03414992</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23755,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111733729</v>
+        <v>111734063</v>
       </c>
       <c r="B170" t="n">
-        <v>90662</v>
+        <v>88946</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23767,30 +23767,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4363</v>
+        <v>256335</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537784.8865190516</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R170" t="n">
-        <v>6656918.555543642</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734024</v>
+        <v>111734390</v>
       </c>
       <c r="B149" t="n">
-        <v>88950</v>
+        <v>89665</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20659,33 +20659,25 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>256756</v>
+        <v>73</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
@@ -20694,10 +20686,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537725.9133506906</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R149" t="n">
-        <v>6656765.090555903</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20742,11 +20734,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC149" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
-        </is>
-      </c>
       <c r="AD149" t="b">
         <v>0</v>
       </c>
@@ -20769,17 +20756,17 @@
       </c>
       <c r="AJ149" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO149" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -20797,10 +20784,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111734010</v>
+        <v>111733686</v>
       </c>
       <c r="B150" t="n">
-        <v>88946</v>
+        <v>90678</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20809,25 +20796,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>256335</v>
+        <v>4366</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -20848,10 +20835,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537731.8253342439</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R150" t="n">
-        <v>6656774.143081455</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -21100,10 +21087,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111734100</v>
+        <v>111733999</v>
       </c>
       <c r="B152" t="n">
-        <v>88967</v>
+        <v>88966</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21112,30 +21099,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6039940</v>
+        <v>5754</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -21151,10 +21138,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537710.2246313525</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R152" t="n">
-        <v>6656733.457844303</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21249,10 +21236,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111734445</v>
+        <v>111734658</v>
       </c>
       <c r="B153" t="n">
-        <v>85210</v>
+        <v>90151</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21261,30 +21248,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3624</v>
+        <v>366</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -21300,10 +21287,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537682.2670869593</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R153" t="n">
-        <v>6656678.219876539</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21370,17 +21357,17 @@
       </c>
       <c r="AJ153" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK153" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO153" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -21398,10 +21385,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734154</v>
+        <v>111734024</v>
       </c>
       <c r="B154" t="n">
-        <v>90151</v>
+        <v>88950</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21414,31 +21401,31 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>366</v>
+        <v>256756</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
@@ -21449,10 +21436,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537710.2246313525</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R154" t="n">
-        <v>6656733.457844303</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21497,6 +21484,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
+        </is>
+      </c>
       <c r="AD154" t="b">
         <v>0</v>
       </c>
@@ -21519,17 +21511,17 @@
       </c>
       <c r="AJ154" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK154" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO154" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -21547,10 +21539,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111733781</v>
+        <v>111733729</v>
       </c>
       <c r="B155" t="n">
-        <v>88946</v>
+        <v>90662</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21559,30 +21551,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>256335</v>
+        <v>4363</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -21598,10 +21590,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537777.7813424434</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R155" t="n">
-        <v>6656879.518825633</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21696,10 +21688,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111733729</v>
+        <v>111734010</v>
       </c>
       <c r="B156" t="n">
-        <v>90662</v>
+        <v>88946</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21708,30 +21700,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4363</v>
+        <v>256335</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21747,10 +21739,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537784.8865190516</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R156" t="n">
-        <v>6656918.555543642</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21845,10 +21837,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111734390</v>
+        <v>111733878</v>
       </c>
       <c r="B157" t="n">
-        <v>89665</v>
+        <v>90678</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21857,25 +21849,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>73</v>
+        <v>4366</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -21888,10 +21880,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537687.4847450438</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R157" t="n">
-        <v>6656706.248840296</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21958,17 +21950,17 @@
       </c>
       <c r="AJ157" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK157" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -21986,10 +21978,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111734315</v>
+        <v>111733658</v>
       </c>
       <c r="B158" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -21998,37 +21990,29 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
@@ -22037,10 +22021,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537701.3922571414</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R158" t="n">
-        <v>6656716.382399381</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22107,17 +22091,17 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO158" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -22284,10 +22268,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111733654</v>
+        <v>111734154</v>
       </c>
       <c r="B160" t="n">
-        <v>90687</v>
+        <v>90151</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22296,29 +22280,37 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>5964</v>
+        <v>366</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
@@ -22327,10 +22319,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537747.6347874232</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R160" t="n">
-        <v>6657038.059664771</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22397,17 +22389,17 @@
       </c>
       <c r="AJ160" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK160" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO160" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -22425,10 +22417,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111733658</v>
+        <v>111734629</v>
       </c>
       <c r="B161" t="n">
-        <v>90678</v>
+        <v>88966</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22437,29 +22429,37 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4366</v>
+        <v>5754</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
@@ -22468,10 +22468,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537747.6347874232</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R161" t="n">
-        <v>6657038.059664771</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22566,7 +22566,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111734039</v>
+        <v>111734100</v>
       </c>
       <c r="B162" t="n">
         <v>88967</v>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22617,10 +22617,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537725.9133506906</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R162" t="n">
-        <v>6656765.090555903</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22663,11 +22663,6 @@
       <c r="AB162" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC162" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD162" t="b">
@@ -22720,10 +22715,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734405</v>
+        <v>111734315</v>
       </c>
       <c r="B163" t="n">
-        <v>90018</v>
+        <v>90151</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22732,30 +22727,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1339</v>
+        <v>366</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22771,10 +22766,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537687.4847450438</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R163" t="n">
-        <v>6656706.248840296</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22841,17 +22836,17 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -22869,10 +22864,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111733878</v>
+        <v>111734063</v>
       </c>
       <c r="B164" t="n">
-        <v>90678</v>
+        <v>88946</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22881,29 +22876,37 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4366</v>
+        <v>256335</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
@@ -22912,10 +22915,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537749.1720232533</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R164" t="n">
-        <v>6656839.262154824</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -23010,10 +23013,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111734629</v>
+        <v>111734531</v>
       </c>
       <c r="B165" t="n">
-        <v>88966</v>
+        <v>88967</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23022,25 +23025,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>5754</v>
+        <v>6039940</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -23061,10 +23064,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537663.3456201598</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R165" t="n">
-        <v>6656669.03414992</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23159,10 +23162,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111734658</v>
+        <v>111734405</v>
       </c>
       <c r="B166" t="n">
-        <v>90151</v>
+        <v>90018</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -23171,30 +23174,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>366</v>
+        <v>1339</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23210,10 +23213,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537685.1971427263</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R166" t="n">
-        <v>6656734.200801319</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23280,17 +23283,17 @@
       </c>
       <c r="AJ166" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK166" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO166" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -23308,10 +23311,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111733686</v>
+        <v>111733654</v>
       </c>
       <c r="B167" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23324,33 +23327,25 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
@@ -23359,10 +23354,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537776.5022700967</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R167" t="n">
-        <v>6656955.434839563</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23457,7 +23452,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734531</v>
+        <v>111734039</v>
       </c>
       <c r="B168" t="n">
         <v>88967</v>
@@ -23492,7 +23487,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23508,10 +23503,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537682.2670869593</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R168" t="n">
-        <v>6656678.219876539</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23554,6 +23549,11 @@
       <c r="AB168" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC168" t="inlineStr">
+        <is>
+          <t>små</t>
         </is>
       </c>
       <c r="AD168" t="b">
@@ -23606,10 +23606,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111733999</v>
+        <v>111733781</v>
       </c>
       <c r="B169" t="n">
-        <v>88966</v>
+        <v>88946</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23618,30 +23618,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5754</v>
+        <v>256335</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23657,10 +23657,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537735.408403003</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R169" t="n">
-        <v>6656815.142909602</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23755,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734063</v>
+        <v>111734445</v>
       </c>
       <c r="B170" t="n">
-        <v>88946</v>
+        <v>85210</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23767,30 +23767,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>256335</v>
+        <v>3624</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537734.3589083791</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R170" t="n">
-        <v>6656722.215160147</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -22566,10 +22566,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111734100</v>
+        <v>111734315</v>
       </c>
       <c r="B162" t="n">
-        <v>88967</v>
+        <v>90151</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22578,30 +22578,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6039940</v>
+        <v>366</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22617,10 +22617,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537710.2246313525</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R162" t="n">
-        <v>6656733.457844303</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22687,17 +22687,17 @@
       </c>
       <c r="AJ162" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -22715,10 +22715,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734315</v>
+        <v>111734100</v>
       </c>
       <c r="B163" t="n">
-        <v>90151</v>
+        <v>88967</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22727,30 +22727,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>366</v>
+        <v>6039940</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22766,10 +22766,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537701.3922571414</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R163" t="n">
-        <v>6656716.382399381</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22836,17 +22836,17 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734390</v>
+        <v>111734024</v>
       </c>
       <c r="B149" t="n">
-        <v>89665</v>
+        <v>88950</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20659,25 +20659,33 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>73</v>
+        <v>256756</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+          <t>(Schaeff.) Ricken</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
@@ -20686,10 +20694,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537687.4847450438</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R149" t="n">
-        <v>6656706.248840296</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20734,6 +20742,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
+        </is>
+      </c>
       <c r="AD149" t="b">
         <v>0</v>
       </c>
@@ -20756,17 +20769,17 @@
       </c>
       <c r="AJ149" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO149" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -20784,10 +20797,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111733686</v>
+        <v>111734629</v>
       </c>
       <c r="B150" t="n">
-        <v>90678</v>
+        <v>88966</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20796,30 +20809,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4366</v>
+        <v>5754</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -20835,10 +20848,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537776.5022700967</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R150" t="n">
-        <v>6656955.434839563</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20933,10 +20946,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111734434</v>
+        <v>111733686</v>
       </c>
       <c r="B151" t="n">
-        <v>88909</v>
+        <v>90678</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20945,30 +20958,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>720</v>
+        <v>4366</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -20984,10 +20997,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537683.5943855111</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R151" t="n">
-        <v>6656695.218654346</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21030,11 +21043,6 @@
       <c r="AB151" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC151" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -21087,10 +21095,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111733999</v>
+        <v>111733658</v>
       </c>
       <c r="B152" t="n">
-        <v>88966</v>
+        <v>90678</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21099,37 +21107,29 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5754</v>
+        <v>4366</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
@@ -21138,10 +21138,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537735.408403003</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R152" t="n">
-        <v>6656815.142909602</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21236,10 +21236,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111734658</v>
+        <v>111733729</v>
       </c>
       <c r="B153" t="n">
-        <v>90151</v>
+        <v>90662</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21248,30 +21248,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>366</v>
+        <v>4363</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -21287,10 +21287,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537685.1971427263</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R153" t="n">
-        <v>6656734.200801319</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21357,17 +21357,17 @@
       </c>
       <c r="AJ153" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK153" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO153" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -21385,10 +21385,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734024</v>
+        <v>111734063</v>
       </c>
       <c r="B154" t="n">
-        <v>88950</v>
+        <v>88946</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21397,35 +21397,35 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>256756</v>
+        <v>256335</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
@@ -21436,10 +21436,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537725.9133506906</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R154" t="n">
-        <v>6656765.090555903</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21482,11 +21482,6 @@
       <c r="AB154" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC154" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -21539,10 +21534,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111733729</v>
+        <v>111734100</v>
       </c>
       <c r="B155" t="n">
-        <v>90662</v>
+        <v>88967</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21551,30 +21546,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4363</v>
+        <v>6039940</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -21590,10 +21585,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537784.8865190516</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R155" t="n">
-        <v>6656918.555543642</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21688,10 +21683,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111734010</v>
+        <v>111734039</v>
       </c>
       <c r="B156" t="n">
-        <v>88946</v>
+        <v>88967</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21700,30 +21695,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>256335</v>
+        <v>6039940</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21739,10 +21734,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537731.8253342439</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R156" t="n">
-        <v>6656774.143081455</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21785,6 +21780,11 @@
       <c r="AB156" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC156" t="inlineStr">
+        <is>
+          <t>små</t>
         </is>
       </c>
       <c r="AD156" t="b">
@@ -21837,10 +21837,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111733878</v>
+        <v>111733781</v>
       </c>
       <c r="B157" t="n">
-        <v>90678</v>
+        <v>88946</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21849,29 +21849,37 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4366</v>
+        <v>256335</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
@@ -21880,10 +21888,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537749.1720232533</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R157" t="n">
-        <v>6656839.262154824</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21978,10 +21986,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111733658</v>
+        <v>111733654</v>
       </c>
       <c r="B158" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -21994,21 +22002,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -22119,10 +22127,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111734358</v>
+        <v>111734434</v>
       </c>
       <c r="B159" t="n">
-        <v>88966</v>
+        <v>88909</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22131,30 +22139,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>5754</v>
+        <v>720</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -22170,10 +22178,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537695.459656042</v>
+        <v>537683.5943855111</v>
       </c>
       <c r="R159" t="n">
-        <v>6656709.327821301</v>
+        <v>6656695.218654346</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22216,6 +22224,11 @@
       <c r="AB159" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC159" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD159" t="b">
@@ -22268,10 +22281,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734154</v>
+        <v>111734358</v>
       </c>
       <c r="B160" t="n">
-        <v>90151</v>
+        <v>88966</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22284,26 +22297,26 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>366</v>
+        <v>5754</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -22319,10 +22332,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537710.2246313525</v>
+        <v>537695.459656042</v>
       </c>
       <c r="R160" t="n">
-        <v>6656733.457844303</v>
+        <v>6656709.327821301</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22389,17 +22402,17 @@
       </c>
       <c r="AJ160" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK160" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO160" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -22417,7 +22430,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111734629</v>
+        <v>111733999</v>
       </c>
       <c r="B161" t="n">
         <v>88966</v>
@@ -22452,7 +22465,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -22468,10 +22481,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537663.3456201598</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R161" t="n">
-        <v>6656669.03414992</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22715,10 +22728,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734100</v>
+        <v>111734154</v>
       </c>
       <c r="B163" t="n">
-        <v>88967</v>
+        <v>90151</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22727,30 +22740,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6039940</v>
+        <v>366</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22836,17 +22849,17 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -22864,7 +22877,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111734063</v>
+        <v>111734010</v>
       </c>
       <c r="B164" t="n">
         <v>88946</v>
@@ -22899,7 +22912,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -22915,10 +22928,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537734.3589083791</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R164" t="n">
-        <v>6656722.215160147</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -23013,10 +23026,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111734531</v>
+        <v>111734390</v>
       </c>
       <c r="B165" t="n">
-        <v>88967</v>
+        <v>89665</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23025,37 +23038,29 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6039940</v>
+        <v>73</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
@@ -23064,10 +23069,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537682.2670869593</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R165" t="n">
-        <v>6656678.219876539</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23134,17 +23139,17 @@
       </c>
       <c r="AJ165" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK165" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO165" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -23311,10 +23316,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111733654</v>
+        <v>111733878</v>
       </c>
       <c r="B167" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23327,21 +23332,21 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -23354,10 +23359,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537747.6347874232</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R167" t="n">
-        <v>6657038.059664771</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23452,7 +23457,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734039</v>
+        <v>111734531</v>
       </c>
       <c r="B168" t="n">
         <v>88967</v>
@@ -23487,7 +23492,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23503,10 +23508,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537725.9133506906</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R168" t="n">
-        <v>6656765.090555903</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23549,11 +23554,6 @@
       <c r="AB168" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC168" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD168" t="b">
@@ -23606,10 +23606,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111733781</v>
+        <v>111734445</v>
       </c>
       <c r="B169" t="n">
-        <v>88946</v>
+        <v>85210</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23618,30 +23618,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>256335</v>
+        <v>3624</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23657,10 +23657,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537777.7813424434</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R169" t="n">
-        <v>6656879.518825633</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23755,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734445</v>
+        <v>111734658</v>
       </c>
       <c r="B170" t="n">
-        <v>85210</v>
+        <v>90151</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23767,30 +23767,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3624</v>
+        <v>366</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537682.2670869593</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R170" t="n">
-        <v>6656678.219876539</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23876,17 +23876,17 @@
       </c>
       <c r="AJ170" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK170" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO170" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734024</v>
+        <v>111734039</v>
       </c>
       <c r="B149" t="n">
-        <v>88950</v>
+        <v>88967</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20655,35 +20655,35 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>256756</v>
+        <v>6039940</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -20744,7 +20744,7 @@
       </c>
       <c r="AC149" t="inlineStr">
         <is>
-          <t>13+8 fruktkroppar</t>
+          <t>små</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -20797,10 +20797,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111734629</v>
+        <v>111734434</v>
       </c>
       <c r="B150" t="n">
-        <v>88966</v>
+        <v>88909</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20809,30 +20809,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5754</v>
+        <v>720</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -20848,10 +20848,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537663.3456201598</v>
+        <v>537683.5943855111</v>
       </c>
       <c r="R150" t="n">
-        <v>6656669.03414992</v>
+        <v>6656695.218654346</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20894,6 +20894,11 @@
       <c r="AB150" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -20946,10 +20951,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111733686</v>
+        <v>111733729</v>
       </c>
       <c r="B151" t="n">
-        <v>90678</v>
+        <v>90662</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20962,26 +20967,26 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -20997,10 +21002,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537776.5022700967</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R151" t="n">
-        <v>6656955.434839563</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21095,10 +21100,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111733658</v>
+        <v>111734315</v>
       </c>
       <c r="B152" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21107,29 +21112,37 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
@@ -21138,10 +21151,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537747.6347874232</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R152" t="n">
-        <v>6657038.059664771</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21208,17 +21221,17 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -21236,10 +21249,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111733729</v>
+        <v>111734405</v>
       </c>
       <c r="B153" t="n">
-        <v>90662</v>
+        <v>90018</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21252,26 +21265,26 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4363</v>
+        <v>1339</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -21287,10 +21300,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537784.8865190516</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R153" t="n">
-        <v>6656918.555543642</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21367,7 +21380,7 @@
       </c>
       <c r="AO153" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -21385,10 +21398,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734063</v>
+        <v>111734024</v>
       </c>
       <c r="B154" t="n">
-        <v>88946</v>
+        <v>88950</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21397,35 +21410,35 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>256335</v>
+        <v>256756</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
@@ -21436,10 +21449,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537734.3589083791</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R154" t="n">
-        <v>6656722.215160147</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21482,6 +21495,11 @@
       <c r="AB154" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -21534,10 +21552,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111734100</v>
+        <v>111733781</v>
       </c>
       <c r="B155" t="n">
-        <v>88967</v>
+        <v>88946</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21546,30 +21564,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6039940</v>
+        <v>256335</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -21585,10 +21603,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537710.2246313525</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R155" t="n">
-        <v>6656733.457844303</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21683,10 +21701,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111734039</v>
+        <v>111734010</v>
       </c>
       <c r="B156" t="n">
-        <v>88967</v>
+        <v>88946</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21695,30 +21713,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6039940</v>
+        <v>256335</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21734,10 +21752,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537725.9133506906</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R156" t="n">
-        <v>6656765.090555903</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21780,11 +21798,6 @@
       <c r="AB156" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC156" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD156" t="b">
@@ -21837,10 +21850,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111733781</v>
+        <v>111733686</v>
       </c>
       <c r="B157" t="n">
-        <v>88946</v>
+        <v>90678</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21849,30 +21862,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>256335</v>
+        <v>4366</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21888,10 +21901,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537777.7813424434</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R157" t="n">
-        <v>6656879.518825633</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21986,10 +21999,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111733654</v>
+        <v>111734445</v>
       </c>
       <c r="B158" t="n">
-        <v>90687</v>
+        <v>85210</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -22002,25 +22015,33 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5964</v>
+        <v>3624</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+          <t>(Schaeff. : Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
@@ -22029,10 +22050,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537747.6347874232</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R158" t="n">
-        <v>6657038.059664771</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22127,10 +22148,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111734434</v>
+        <v>111734100</v>
       </c>
       <c r="B159" t="n">
-        <v>88909</v>
+        <v>88967</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22139,30 +22160,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>720</v>
+        <v>6039940</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -22178,10 +22199,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537683.5943855111</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R159" t="n">
-        <v>6656695.218654346</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22224,11 +22245,6 @@
       <c r="AB159" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC159" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD159" t="b">
@@ -22430,10 +22446,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111733999</v>
+        <v>111734154</v>
       </c>
       <c r="B161" t="n">
-        <v>88966</v>
+        <v>90151</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22446,26 +22462,26 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5754</v>
+        <v>366</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -22481,10 +22497,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537735.408403003</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R161" t="n">
-        <v>6656815.142909602</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22551,17 +22567,17 @@
       </c>
       <c r="AJ161" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO161" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -22579,10 +22595,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111734315</v>
+        <v>111733658</v>
       </c>
       <c r="B162" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22591,37 +22607,29 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
@@ -22630,10 +22638,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537701.3922571414</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R162" t="n">
-        <v>6656716.382399381</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22700,17 +22708,17 @@
       </c>
       <c r="AJ162" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -22728,10 +22736,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111734154</v>
+        <v>111733878</v>
       </c>
       <c r="B163" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22740,37 +22748,29 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
@@ -22779,10 +22779,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537710.2246313525</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R163" t="n">
-        <v>6656733.457844303</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22849,17 +22849,17 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -22877,10 +22877,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111734010</v>
+        <v>111733654</v>
       </c>
       <c r="B164" t="n">
-        <v>88946</v>
+        <v>90687</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22889,37 +22889,29 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>256335</v>
+        <v>5964</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
@@ -22928,10 +22920,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537731.8253342439</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R164" t="n">
-        <v>6656774.143081455</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -23026,10 +23018,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111734390</v>
+        <v>111733999</v>
       </c>
       <c r="B165" t="n">
-        <v>89665</v>
+        <v>88966</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23042,25 +23034,33 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>73</v>
+        <v>5754</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
@@ -23069,10 +23069,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537687.4847450438</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R165" t="n">
-        <v>6656706.248840296</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23139,17 +23139,17 @@
       </c>
       <c r="AJ165" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK165" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO165" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -23167,10 +23167,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111734405</v>
+        <v>111734658</v>
       </c>
       <c r="B166" t="n">
-        <v>90018</v>
+        <v>90151</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -23179,30 +23179,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1339</v>
+        <v>366</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23218,10 +23218,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537687.4847450438</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R166" t="n">
-        <v>6656706.248840296</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23288,17 +23288,17 @@
       </c>
       <c r="AJ166" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK166" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO166" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -23316,10 +23316,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111733878</v>
+        <v>111734390</v>
       </c>
       <c r="B167" t="n">
-        <v>90678</v>
+        <v>89665</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23328,25 +23328,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4366</v>
+        <v>73</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -23359,10 +23359,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537749.1720232533</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R167" t="n">
-        <v>6656839.262154824</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23429,17 +23429,17 @@
       </c>
       <c r="AJ167" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK167" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -23457,10 +23457,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734531</v>
+        <v>111734629</v>
       </c>
       <c r="B168" t="n">
-        <v>88967</v>
+        <v>88966</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23469,25 +23469,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>6039940</v>
+        <v>5754</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -23508,10 +23508,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537682.2670869593</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R168" t="n">
-        <v>6656678.219876539</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23606,10 +23606,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734445</v>
+        <v>111734531</v>
       </c>
       <c r="B169" t="n">
-        <v>85210</v>
+        <v>88967</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23618,30 +23618,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3624</v>
+        <v>6039940</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23755,10 +23755,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734658</v>
+        <v>111734063</v>
       </c>
       <c r="B170" t="n">
-        <v>90151</v>
+        <v>88946</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23767,30 +23767,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>366</v>
+        <v>256335</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537685.1971427263</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R170" t="n">
-        <v>6656734.200801319</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23876,17 +23876,17 @@
       </c>
       <c r="AJ170" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK170" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO170" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -21850,10 +21850,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111733686</v>
+        <v>111734445</v>
       </c>
       <c r="B157" t="n">
-        <v>90678</v>
+        <v>85210</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21866,26 +21866,26 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4366</v>
+        <v>3624</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21901,10 +21901,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537776.5022700967</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R157" t="n">
-        <v>6656955.434839563</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21999,10 +21999,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111734445</v>
+        <v>111733686</v>
       </c>
       <c r="B158" t="n">
-        <v>85210</v>
+        <v>90678</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -22015,26 +22015,26 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3624</v>
+        <v>4366</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -22050,10 +22050,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537682.2670869593</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R158" t="n">
-        <v>6656678.219876539</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734039</v>
+        <v>111734405</v>
       </c>
       <c r="B149" t="n">
-        <v>88967</v>
+        <v>90018</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20655,30 +20655,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6039940</v>
+        <v>1339</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -20694,10 +20694,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537725.9133506906</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R149" t="n">
-        <v>6656765.090555903</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20742,11 +20742,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC149" t="inlineStr">
-        <is>
-          <t>små</t>
-        </is>
-      </c>
       <c r="AD149" t="b">
         <v>0</v>
       </c>
@@ -20779,7 +20774,7 @@
       </c>
       <c r="AO149" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -20797,10 +20792,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111734434</v>
+        <v>111734063</v>
       </c>
       <c r="B150" t="n">
-        <v>88909</v>
+        <v>88946</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20813,26 +20808,26 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>720</v>
+        <v>256335</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -20848,10 +20843,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537683.5943855111</v>
+        <v>537734.3589083791</v>
       </c>
       <c r="R150" t="n">
-        <v>6656695.218654346</v>
+        <v>6656722.215160147</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20894,11 +20889,6 @@
       <c r="AB150" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC150" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -20951,10 +20941,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111733729</v>
+        <v>111734390</v>
       </c>
       <c r="B151" t="n">
-        <v>90662</v>
+        <v>89665</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20963,37 +20953,29 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4363</v>
+        <v>73</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
@@ -21002,10 +20984,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537784.8865190516</v>
+        <v>537687.4847450438</v>
       </c>
       <c r="R151" t="n">
-        <v>6656918.555543642</v>
+        <v>6656706.248840296</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21072,17 +21054,17 @@
       </c>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO151" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -21100,10 +21082,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111734315</v>
+        <v>111733658</v>
       </c>
       <c r="B152" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21112,37 +21094,29 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
@@ -21151,10 +21125,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537701.3922571414</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R152" t="n">
-        <v>6656716.382399381</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21221,17 +21195,17 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -21249,10 +21223,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111734405</v>
+        <v>111733654</v>
       </c>
       <c r="B153" t="n">
-        <v>90018</v>
+        <v>90687</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21265,33 +21239,25 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1339</v>
+        <v>5964</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
@@ -21300,10 +21266,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537687.4847450438</v>
+        <v>537747.6347874232</v>
       </c>
       <c r="R153" t="n">
-        <v>6656706.248840296</v>
+        <v>6657038.059664771</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21380,7 +21346,7 @@
       </c>
       <c r="AO153" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -21398,10 +21364,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734024</v>
+        <v>111734039</v>
       </c>
       <c r="B154" t="n">
-        <v>88950</v>
+        <v>88967</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21410,35 +21376,35 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>256756</v>
+        <v>6039940</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
@@ -21499,7 +21465,7 @@
       </c>
       <c r="AC154" t="inlineStr">
         <is>
-          <t>13+8 fruktkroppar</t>
+          <t>små</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -21552,10 +21518,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111733781</v>
+        <v>111733999</v>
       </c>
       <c r="B155" t="n">
-        <v>88946</v>
+        <v>88966</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21564,30 +21530,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>256335</v>
+        <v>5754</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -21603,10 +21569,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537777.7813424434</v>
+        <v>537735.408403003</v>
       </c>
       <c r="R155" t="n">
-        <v>6656879.518825633</v>
+        <v>6656815.142909602</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21701,10 +21667,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111734010</v>
+        <v>111733878</v>
       </c>
       <c r="B156" t="n">
-        <v>88946</v>
+        <v>90678</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21713,37 +21679,29 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>256335</v>
+        <v>4366</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
@@ -21752,10 +21710,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537731.8253342439</v>
+        <v>537749.1720232533</v>
       </c>
       <c r="R156" t="n">
-        <v>6656774.143081455</v>
+        <v>6656839.262154824</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21850,10 +21808,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111734445</v>
+        <v>111734358</v>
       </c>
       <c r="B157" t="n">
-        <v>85210</v>
+        <v>88966</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21862,30 +21820,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>3624</v>
+        <v>5754</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21901,10 +21859,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537682.2670869593</v>
+        <v>537695.459656042</v>
       </c>
       <c r="R157" t="n">
-        <v>6656678.219876539</v>
+        <v>6656709.327821301</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21999,10 +21957,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111733686</v>
+        <v>111734154</v>
       </c>
       <c r="B158" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -22011,30 +21969,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -22050,10 +22008,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537776.5022700967</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R158" t="n">
-        <v>6656955.434839563</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22120,17 +22078,17 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO158" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -22148,7 +22106,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111734100</v>
+        <v>111734531</v>
       </c>
       <c r="B159" t="n">
         <v>88967</v>
@@ -22183,7 +22141,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -22199,10 +22157,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537710.2246313525</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R159" t="n">
-        <v>6656733.457844303</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22297,7 +22255,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734358</v>
+        <v>111734629</v>
       </c>
       <c r="B160" t="n">
         <v>88966</v>
@@ -22332,7 +22290,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -22348,10 +22306,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537695.459656042</v>
+        <v>537663.3456201598</v>
       </c>
       <c r="R160" t="n">
-        <v>6656709.327821301</v>
+        <v>6656669.03414992</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22446,10 +22404,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111734154</v>
+        <v>111734445</v>
       </c>
       <c r="B161" t="n">
-        <v>90151</v>
+        <v>85210</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22458,30 +22416,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>366</v>
+        <v>3624</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -22497,10 +22455,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537710.2246313525</v>
+        <v>537682.2670869593</v>
       </c>
       <c r="R161" t="n">
-        <v>6656733.457844303</v>
+        <v>6656678.219876539</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22567,17 +22525,17 @@
       </c>
       <c r="AJ161" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO161" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -22595,10 +22553,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111733658</v>
+        <v>111734434</v>
       </c>
       <c r="B162" t="n">
-        <v>90678</v>
+        <v>88909</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22607,29 +22565,37 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4366</v>
+        <v>720</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
@@ -22638,10 +22604,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537747.6347874232</v>
+        <v>537683.5943855111</v>
       </c>
       <c r="R162" t="n">
-        <v>6657038.059664771</v>
+        <v>6656695.218654346</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22684,6 +22650,11 @@
       <c r="AB162" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC162" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD162" t="b">
@@ -22736,10 +22707,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111733878</v>
+        <v>111733729</v>
       </c>
       <c r="B163" t="n">
-        <v>90678</v>
+        <v>90662</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22752,25 +22723,33 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
@@ -22779,10 +22758,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537749.1720232533</v>
+        <v>537784.8865190516</v>
       </c>
       <c r="R163" t="n">
-        <v>6656839.262154824</v>
+        <v>6656918.555543642</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22877,10 +22856,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111733654</v>
+        <v>111734658</v>
       </c>
       <c r="B164" t="n">
-        <v>90687</v>
+        <v>90151</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22889,29 +22868,37 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5964</v>
+        <v>366</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
@@ -22920,10 +22907,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537747.6347874232</v>
+        <v>537685.1971427263</v>
       </c>
       <c r="R164" t="n">
-        <v>6657038.059664771</v>
+        <v>6656734.200801319</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -22990,17 +22977,17 @@
       </c>
       <c r="AJ164" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK164" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO164" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT164" t="inlineStr"/>
@@ -23018,10 +23005,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111733999</v>
+        <v>111734100</v>
       </c>
       <c r="B165" t="n">
-        <v>88966</v>
+        <v>88967</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23030,30 +23017,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>5754</v>
+        <v>6039940</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -23069,10 +23056,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537735.408403003</v>
+        <v>537710.2246313525</v>
       </c>
       <c r="R165" t="n">
-        <v>6656815.142909602</v>
+        <v>6656733.457844303</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23167,10 +23154,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111734658</v>
+        <v>111733781</v>
       </c>
       <c r="B166" t="n">
-        <v>90151</v>
+        <v>88946</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -23179,30 +23166,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>366</v>
+        <v>256335</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23218,10 +23205,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537685.1971427263</v>
+        <v>537777.7813424434</v>
       </c>
       <c r="R166" t="n">
-        <v>6656734.200801319</v>
+        <v>6656879.518825633</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23288,17 +23275,17 @@
       </c>
       <c r="AJ166" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK166" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO166" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -23316,10 +23303,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111734390</v>
+        <v>111734315</v>
       </c>
       <c r="B167" t="n">
-        <v>89665</v>
+        <v>90151</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23332,25 +23319,33 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
@@ -23359,10 +23354,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537687.4847450438</v>
+        <v>537701.3922571414</v>
       </c>
       <c r="R167" t="n">
-        <v>6656706.248840296</v>
+        <v>6656716.382399381</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23439,7 +23434,7 @@
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -23457,10 +23452,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734629</v>
+        <v>111733686</v>
       </c>
       <c r="B168" t="n">
-        <v>88966</v>
+        <v>90678</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23469,30 +23464,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>5754</v>
+        <v>4366</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23508,10 +23503,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537663.3456201598</v>
+        <v>537776.5022700967</v>
       </c>
       <c r="R168" t="n">
-        <v>6656669.03414992</v>
+        <v>6656955.434839563</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23606,10 +23601,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734531</v>
+        <v>111734010</v>
       </c>
       <c r="B169" t="n">
-        <v>88967</v>
+        <v>88946</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23618,30 +23613,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6039940</v>
+        <v>256335</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23657,10 +23652,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537682.2670869593</v>
+        <v>537731.8253342439</v>
       </c>
       <c r="R169" t="n">
-        <v>6656678.219876539</v>
+        <v>6656774.143081455</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23755,10 +23750,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734063</v>
+        <v>111734024</v>
       </c>
       <c r="B170" t="n">
-        <v>88946</v>
+        <v>88950</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23767,35 +23762,35 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>256335</v>
+        <v>256756</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -23806,10 +23801,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537734.3589083791</v>
+        <v>537725.9133506906</v>
       </c>
       <c r="R170" t="n">
-        <v>6656722.215160147</v>
+        <v>6656765.090555903</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23852,6 +23847,11 @@
       <c r="AB170" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC170" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD170" t="b">

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111734405</v>
+        <v>111733654</v>
       </c>
       <c r="B149" t="n">
-        <v>90018</v>
+        <v>90687</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20659,33 +20659,25 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1339</v>
+        <v>5964</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
@@ -20694,10 +20686,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537687.4847450438</v>
+        <v>537748</v>
       </c>
       <c r="R149" t="n">
-        <v>6656706.248840296</v>
+        <v>6657038</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20727,19 +20719,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA149" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB149" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -20774,7 +20756,7 @@
       </c>
       <c r="AO149" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -20792,10 +20774,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111734063</v>
+        <v>111734434</v>
       </c>
       <c r="B150" t="n">
-        <v>88946</v>
+        <v>88909</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20808,26 +20790,26 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>256335</v>
+        <v>720</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -20843,10 +20825,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537734.3589083791</v>
+        <v>537684</v>
       </c>
       <c r="R150" t="n">
-        <v>6656722.215160147</v>
+        <v>6656695</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20876,19 +20858,14 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA150" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="AB150" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -20941,10 +20918,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111734390</v>
+        <v>111734010</v>
       </c>
       <c r="B151" t="n">
-        <v>89665</v>
+        <v>88946</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20953,29 +20930,37 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>73</v>
+        <v>256335</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
@@ -20984,10 +20969,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537687.4847450438</v>
+        <v>537732</v>
       </c>
       <c r="R151" t="n">
-        <v>6656706.248840296</v>
+        <v>6656774</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21017,19 +21002,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA151" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB151" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -21054,17 +21029,17 @@
       </c>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO151" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -21082,10 +21057,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111733658</v>
+        <v>111734390</v>
       </c>
       <c r="B152" t="n">
-        <v>90678</v>
+        <v>89665</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21094,25 +21069,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4366</v>
+        <v>73</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -21125,10 +21100,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537747.6347874232</v>
+        <v>537687</v>
       </c>
       <c r="R152" t="n">
-        <v>6657038.059664771</v>
+        <v>6656706</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21158,19 +21133,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA152" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB152" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -21195,17 +21160,17 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -21223,10 +21188,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111733654</v>
+        <v>111734039</v>
       </c>
       <c r="B153" t="n">
-        <v>90687</v>
+        <v>88967</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21235,29 +21200,37 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>5964</v>
+        <v>6039940</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+          <t>Schild</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
@@ -21266,10 +21239,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537747.6347874232</v>
+        <v>537726</v>
       </c>
       <c r="R153" t="n">
-        <v>6657038.059664771</v>
+        <v>6656765</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21299,19 +21272,14 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA153" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="AB153" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC153" t="inlineStr">
+        <is>
+          <t>små</t>
         </is>
       </c>
       <c r="AD153" t="b">
@@ -21364,10 +21332,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734039</v>
+        <v>111734405</v>
       </c>
       <c r="B154" t="n">
-        <v>88967</v>
+        <v>90018</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21376,30 +21344,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>6039940</v>
+        <v>1339</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -21415,10 +21383,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537725.9133506906</v>
+        <v>537687</v>
       </c>
       <c r="R154" t="n">
-        <v>6656765.090555903</v>
+        <v>6656706</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21448,24 +21416,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA154" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC154" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -21500,7 +21453,7 @@
       </c>
       <c r="AO154" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -21518,10 +21471,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111733999</v>
+        <v>111733781</v>
       </c>
       <c r="B155" t="n">
-        <v>88966</v>
+        <v>88946</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -21530,30 +21483,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5754</v>
+        <v>256335</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -21569,10 +21522,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>537735.408403003</v>
+        <v>537778</v>
       </c>
       <c r="R155" t="n">
-        <v>6656815.142909602</v>
+        <v>6656880</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -21602,19 +21555,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA155" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD155" t="b">
@@ -21667,10 +21610,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111733878</v>
+        <v>111734063</v>
       </c>
       <c r="B156" t="n">
-        <v>90678</v>
+        <v>88946</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21679,29 +21622,37 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4366</v>
+        <v>256335</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
@@ -21710,10 +21661,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537749.1720232533</v>
+        <v>537734</v>
       </c>
       <c r="R156" t="n">
-        <v>6656839.262154824</v>
+        <v>6656722</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21743,19 +21694,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA156" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB156" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD156" t="b">
@@ -21808,10 +21749,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111734358</v>
+        <v>111734100</v>
       </c>
       <c r="B157" t="n">
-        <v>88966</v>
+        <v>88967</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21820,30 +21761,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>5754</v>
+        <v>6039940</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21859,10 +21800,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537695.459656042</v>
+        <v>537710</v>
       </c>
       <c r="R157" t="n">
-        <v>6656709.327821301</v>
+        <v>6656733</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21892,19 +21833,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA157" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB157" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD157" t="b">
@@ -21957,10 +21888,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111734154</v>
+        <v>111734629</v>
       </c>
       <c r="B158" t="n">
-        <v>90151</v>
+        <v>88966</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -21973,26 +21904,26 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>366</v>
+        <v>5754</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -22008,10 +21939,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537710.2246313525</v>
+        <v>537663</v>
       </c>
       <c r="R158" t="n">
-        <v>6656733.457844303</v>
+        <v>6656669</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -22041,19 +21972,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA158" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB158" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD158" t="b">
@@ -22078,17 +21999,17 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO158" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -22106,10 +22027,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111734531</v>
+        <v>111733999</v>
       </c>
       <c r="B159" t="n">
-        <v>88967</v>
+        <v>88966</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22118,30 +22039,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>6039940</v>
+        <v>5754</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -22157,10 +22078,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537682.2670869593</v>
+        <v>537735</v>
       </c>
       <c r="R159" t="n">
-        <v>6656678.219876539</v>
+        <v>6656815</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22190,19 +22111,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA159" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB159" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD159" t="b">
@@ -22255,10 +22166,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734629</v>
+        <v>111734024</v>
       </c>
       <c r="B160" t="n">
-        <v>88966</v>
+        <v>88950</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22271,31 +22182,31 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>5754</v>
+        <v>256756</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -22306,10 +22217,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537663.3456201598</v>
+        <v>537726</v>
       </c>
       <c r="R160" t="n">
-        <v>6656669.03414992</v>
+        <v>6656765</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22339,19 +22250,14 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA160" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="AB160" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD160" t="b">
@@ -22404,10 +22310,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111734445</v>
+        <v>111734658</v>
       </c>
       <c r="B161" t="n">
-        <v>85210</v>
+        <v>90151</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22416,30 +22322,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3624</v>
+        <v>366</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -22455,10 +22361,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537682.2670869593</v>
+        <v>537685</v>
       </c>
       <c r="R161" t="n">
-        <v>6656678.219876539</v>
+        <v>6656734</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22488,19 +22394,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA161" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB161" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD161" t="b">
@@ -22525,17 +22421,17 @@
       </c>
       <c r="AJ161" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO161" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -22553,10 +22449,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111734434</v>
+        <v>111733686</v>
       </c>
       <c r="B162" t="n">
-        <v>88909</v>
+        <v>90678</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -22565,30 +22461,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>720</v>
+        <v>4366</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22604,10 +22500,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537683.5943855111</v>
+        <v>537777</v>
       </c>
       <c r="R162" t="n">
-        <v>6656695.218654346</v>
+        <v>6656955</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22637,24 +22533,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA162" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB162" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC162" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD162" t="b">
@@ -22758,10 +22639,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537784.8865190516</v>
+        <v>537785</v>
       </c>
       <c r="R163" t="n">
-        <v>6656918.555543642</v>
+        <v>6656919</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22791,19 +22672,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA163" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB163" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -22856,10 +22727,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111734658</v>
+        <v>111733878</v>
       </c>
       <c r="B164" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22868,37 +22739,29 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
@@ -22907,10 +22770,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537685.1971427263</v>
+        <v>537749</v>
       </c>
       <c r="R164" t="n">
-        <v>6656734.200801319</v>
+        <v>6656839</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -22940,19 +22803,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA164" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB164" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD164" t="b">
@@ -22977,17 +22830,17 @@
       </c>
       <c r="AJ164" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK164" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO164" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT164" t="inlineStr"/>
@@ -23005,10 +22858,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111734100</v>
+        <v>111734315</v>
       </c>
       <c r="B165" t="n">
-        <v>88967</v>
+        <v>90151</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -23017,30 +22870,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6039940</v>
+        <v>366</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -23056,10 +22909,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537710.2246313525</v>
+        <v>537701</v>
       </c>
       <c r="R165" t="n">
-        <v>6656733.457844303</v>
+        <v>6656716</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -23089,19 +22942,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA165" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB165" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD165" t="b">
@@ -23126,17 +22969,17 @@
       </c>
       <c r="AJ165" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK165" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO165" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -23154,10 +22997,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111733781</v>
+        <v>111734445</v>
       </c>
       <c r="B166" t="n">
-        <v>88946</v>
+        <v>85210</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -23166,30 +23009,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>256335</v>
+        <v>3624</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23205,10 +23048,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>537777.7813424434</v>
+        <v>537682</v>
       </c>
       <c r="R166" t="n">
-        <v>6656879.518825633</v>
+        <v>6656678</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -23238,19 +23081,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA166" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB166" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD166" t="b">
@@ -23303,10 +23136,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111734315</v>
+        <v>111733658</v>
       </c>
       <c r="B167" t="n">
-        <v>90151</v>
+        <v>90678</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23315,37 +23148,29 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
@@ -23354,10 +23179,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537701.3922571414</v>
+        <v>537748</v>
       </c>
       <c r="R167" t="n">
-        <v>6656716.382399381</v>
+        <v>6657038</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23387,19 +23212,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA167" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB167" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -23424,17 +23239,17 @@
       </c>
       <c r="AJ167" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK167" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -23452,10 +23267,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111733686</v>
+        <v>111734154</v>
       </c>
       <c r="B168" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -23464,30 +23279,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23503,10 +23318,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537776.5022700967</v>
+        <v>537710</v>
       </c>
       <c r="R168" t="n">
-        <v>6656955.434839563</v>
+        <v>6656733</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23536,19 +23351,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA168" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB168" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD168" t="b">
@@ -23573,17 +23378,17 @@
       </c>
       <c r="AJ168" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK168" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -23601,10 +23406,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734010</v>
+        <v>111734531</v>
       </c>
       <c r="B169" t="n">
-        <v>88946</v>
+        <v>88967</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23613,30 +23418,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>256335</v>
+        <v>6039940</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -23652,10 +23457,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537731.8253342439</v>
+        <v>537682</v>
       </c>
       <c r="R169" t="n">
-        <v>6656774.143081455</v>
+        <v>6656678</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23685,19 +23490,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA169" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB169" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD169" t="b">
@@ -23750,10 +23545,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734024</v>
+        <v>111734358</v>
       </c>
       <c r="B170" t="n">
-        <v>88950</v>
+        <v>88966</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23766,31 +23561,31 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>256756</v>
+        <v>5754</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -23801,10 +23596,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537725.9133506906</v>
+        <v>537695</v>
       </c>
       <c r="R170" t="n">
-        <v>6656765.090555903</v>
+        <v>6656709</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23834,24 +23629,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA170" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB170" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC170" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD170" t="b">

--- a/artfynd/A 10784-2020.xlsx
+++ b/artfynd/A 10784-2020.xlsx
@@ -20643,10 +20643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111733654</v>
+        <v>111734100</v>
       </c>
       <c r="B149" t="n">
-        <v>90687</v>
+        <v>88967</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -20655,29 +20655,37 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5964</v>
+        <v>6039940</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+          <t>Schild</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
@@ -20686,10 +20694,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>537748</v>
+        <v>537710</v>
       </c>
       <c r="R149" t="n">
-        <v>6657038</v>
+        <v>6656733</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -20774,10 +20782,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111734434</v>
+        <v>111734358</v>
       </c>
       <c r="B150" t="n">
-        <v>88909</v>
+        <v>88966</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -20786,30 +20794,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>720</v>
+        <v>5754</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -20825,10 +20833,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>537684</v>
+        <v>537695</v>
       </c>
       <c r="R150" t="n">
-        <v>6656695</v>
+        <v>6656709</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -20861,11 +20869,6 @@
       <c r="AA150" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AC150" t="inlineStr">
-        <is>
-          <t>ring ca 1,5 m i diameter</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -20918,10 +20921,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111734010</v>
+        <v>111733658</v>
       </c>
       <c r="B151" t="n">
-        <v>88946</v>
+        <v>90678</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -20930,37 +20933,29 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>256335</v>
+        <v>4366</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
@@ -20969,10 +20964,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>537732</v>
+        <v>537748</v>
       </c>
       <c r="R151" t="n">
-        <v>6656774</v>
+        <v>6657038</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21057,10 +21052,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111734390</v>
+        <v>111734063</v>
       </c>
       <c r="B152" t="n">
-        <v>89665</v>
+        <v>88946</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -21069,29 +21064,37 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>73</v>
+        <v>256335</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
@@ -21100,10 +21103,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>537687</v>
+        <v>537734</v>
       </c>
       <c r="R152" t="n">
-        <v>6656706</v>
+        <v>6656722</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -21160,17 +21163,17 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -21188,10 +21191,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111734039</v>
+        <v>111734629</v>
       </c>
       <c r="B153" t="n">
-        <v>88967</v>
+        <v>88966</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -21200,30 +21203,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6039940</v>
+        <v>5754</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -21239,10 +21242,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>537726</v>
+        <v>537663</v>
       </c>
       <c r="R153" t="n">
-        <v>6656765</v>
+        <v>6656669</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -21275,11 +21278,6 @@
       <c r="AA153" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AC153" t="inlineStr">
-        <is>
-          <t>små</t>
         </is>
       </c>
       <c r="AD153" t="b">
@@ -21332,10 +21330,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111734405</v>
+        <v>111734434</v>
       </c>
       <c r="B154" t="n">
-        <v>90018</v>
+        <v>88909</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -21344,30 +21342,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1339</v>
+        <v>720</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -21383,10 +21381,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>537687</v>
+        <v>537684</v>
       </c>
       <c r="R154" t="n">
-        <v>6656706</v>
+        <v>6656695</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -21421,6 +21419,11 @@
           <t>2023-08-26</t>
         </is>
       </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>ring ca 1,5 m i diameter</t>
+        </is>
+      </c>
       <c r="AD154" t="b">
         <v>0</v>
       </c>
@@ -21453,7 +21456,7 @@
       </c>
       <c r="AO154" t="inlineStr">
         <is>
-          <t>högstubbe # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -21610,10 +21613,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111734063</v>
+        <v>111734390</v>
       </c>
       <c r="B156" t="n">
-        <v>88946</v>
+        <v>89665</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -21622,37 +21625,29 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>256335</v>
+        <v>73</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
@@ -21661,10 +21656,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>537734</v>
+        <v>537687</v>
       </c>
       <c r="R156" t="n">
-        <v>6656722</v>
+        <v>6656706</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -21721,17 +21716,17 @@
       </c>
       <c r="AJ156" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK156" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO156" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -21749,10 +21744,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111734100</v>
+        <v>111734010</v>
       </c>
       <c r="B157" t="n">
-        <v>88967</v>
+        <v>88946</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -21761,30 +21756,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6039940</v>
+        <v>256335</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Schild</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -21800,10 +21795,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>537710</v>
+        <v>537732</v>
       </c>
       <c r="R157" t="n">
-        <v>6656733</v>
+        <v>6656774</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -21888,10 +21883,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111734629</v>
+        <v>111734039</v>
       </c>
       <c r="B158" t="n">
-        <v>88966</v>
+        <v>88967</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -21900,30 +21895,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5754</v>
+        <v>6039940</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -21939,10 +21934,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>537663</v>
+        <v>537726</v>
       </c>
       <c r="R158" t="n">
-        <v>6656669</v>
+        <v>6656765</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -21975,6 +21970,11 @@
       <c r="AA158" t="inlineStr">
         <is>
           <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>små</t>
         </is>
       </c>
       <c r="AD158" t="b">
@@ -22027,10 +22027,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111733999</v>
+        <v>111733686</v>
       </c>
       <c r="B159" t="n">
-        <v>88966</v>
+        <v>90678</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -22039,30 +22039,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>5754</v>
+        <v>4366</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>537735</v>
+        <v>537777</v>
       </c>
       <c r="R159" t="n">
-        <v>6656815</v>
+        <v>6656955</v>
       </c>
       <c r="S159" t="n">
         <v>5</v>
@@ -22166,10 +22166,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111734024</v>
+        <v>111733729</v>
       </c>
       <c r="B160" t="n">
-        <v>88950</v>
+        <v>90662</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -22178,35 +22178,35 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>256756</v>
+        <v>4363</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -22217,10 +22217,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>537726</v>
+        <v>537785</v>
       </c>
       <c r="R160" t="n">
-        <v>6656765</v>
+        <v>6656919</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -22253,11 +22253,6 @@
       <c r="AA160" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AC160" t="inlineStr">
-        <is>
-          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD160" t="b">
@@ -22310,10 +22305,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111734658</v>
+        <v>111734531</v>
       </c>
       <c r="B161" t="n">
-        <v>90151</v>
+        <v>88967</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -22322,30 +22317,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>366</v>
+        <v>6039940</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Mandarinfingersvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria tridentina</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Schild</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -22361,10 +22356,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>537685</v>
+        <v>537682</v>
       </c>
       <c r="R161" t="n">
-        <v>6656734</v>
+        <v>6656678</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -22421,17 +22416,17 @@
       </c>
       <c r="AJ161" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO161" t="inlineStr">
         <is>
-          <t>grov asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -22449,7 +22444,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111733686</v>
+        <v>111733878</v>
       </c>
       <c r="B162" t="n">
         <v>90678</v>
@@ -22482,16 +22477,8 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
@@ -22500,10 +22487,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>537777</v>
+        <v>537749</v>
       </c>
       <c r="R162" t="n">
-        <v>6656955</v>
+        <v>6656839</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -22588,10 +22575,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111733729</v>
+        <v>111734024</v>
       </c>
       <c r="B163" t="n">
-        <v>90662</v>
+        <v>88950</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -22600,35 +22587,35 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4363</v>
+        <v>256756</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
@@ -22639,10 +22626,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>537785</v>
+        <v>537726</v>
       </c>
       <c r="R163" t="n">
-        <v>6656919</v>
+        <v>6656765</v>
       </c>
       <c r="S163" t="n">
         <v>5</v>
@@ -22675,6 +22662,11 @@
       <c r="AA163" t="inlineStr">
         <is>
           <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AC163" t="inlineStr">
+        <is>
+          <t>13+8 fruktkroppar</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -22727,10 +22719,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111733878</v>
+        <v>111734154</v>
       </c>
       <c r="B164" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -22739,29 +22731,37 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
@@ -22770,10 +22770,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>537749</v>
+        <v>537710</v>
       </c>
       <c r="R164" t="n">
-        <v>6656839</v>
+        <v>6656733</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -22830,17 +22830,17 @@
       </c>
       <c r="AJ164" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK164" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO164" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT164" t="inlineStr"/>
@@ -22858,10 +22858,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111734315</v>
+        <v>111733999</v>
       </c>
       <c r="B165" t="n">
-        <v>90151</v>
+        <v>88966</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -22874,26 +22874,26 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>366</v>
+        <v>5754</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -22909,10 +22909,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>537701</v>
+        <v>537735</v>
       </c>
       <c r="R165" t="n">
-        <v>6656716</v>
+        <v>6656815</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -22969,17 +22969,17 @@
       </c>
       <c r="AJ165" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK165" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO165" t="inlineStr">
         <is>
-          <t>grov murken asplåga # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -23136,10 +23136,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111733658</v>
+        <v>111734658</v>
       </c>
       <c r="B167" t="n">
-        <v>90678</v>
+        <v>90151</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -23148,29 +23148,37 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
@@ -23179,10 +23187,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>537748</v>
+        <v>537685</v>
       </c>
       <c r="R167" t="n">
-        <v>6657038</v>
+        <v>6656734</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -23239,17 +23247,17 @@
       </c>
       <c r="AJ167" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK167" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -23267,7 +23275,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111734154</v>
+        <v>111734315</v>
       </c>
       <c r="B168" t="n">
         <v>90151</v>
@@ -23302,7 +23310,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -23318,10 +23326,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>537710</v>
+        <v>537701</v>
       </c>
       <c r="R168" t="n">
-        <v>6656733</v>
+        <v>6656716</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -23388,7 +23396,7 @@
       </c>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>murken asplåga # Populus tremula</t>
+          <t>grov murken asplåga # Populus tremula</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -23406,10 +23414,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111734531</v>
+        <v>111733654</v>
       </c>
       <c r="B169" t="n">
-        <v>88967</v>
+        <v>90687</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -23418,37 +23426,29 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6039940</v>
+        <v>5964</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Mandarinfingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ramaria tridentina</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
@@ -23457,10 +23457,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>537682</v>
+        <v>537748</v>
       </c>
       <c r="R169" t="n">
-        <v>6656678</v>
+        <v>6657038</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -23545,10 +23545,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111734358</v>
+        <v>111734405</v>
       </c>
       <c r="B170" t="n">
-        <v>88966</v>
+        <v>90018</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -23557,30 +23557,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5754</v>
+        <v>1339</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -23596,10 +23596,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>537695</v>
+        <v>537687</v>
       </c>
       <c r="R170" t="n">
-        <v>6656709</v>
+        <v>6656706</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="AO170" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>högstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>
